--- a/inst/extdata/frac_smry_cptac_gl.xlsx
+++ b/inst/extdata/frac_smry_cptac_gl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\Mertins_Nat_Protoc_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/frac_smry_cptac_gl.xlsx
+++ b/inst/extdata/frac_smry_cptac_gl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F91827-BB81-47B8-A1DE-BC8662DD1239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fractions" sheetId="2" r:id="rId1"/>
@@ -486,7 +487,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,12 +857,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
